--- a/Luban/Project/Datas/__enums__.xlsx
+++ b/Luban/Project/Datas/__enums__.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\GF_Survivor\Luban\Project\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1894E52-864F-4442-9190-9261A2C254BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B06B7-6AFF-4FA9-8ED9-0122597C5137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="570" windowWidth="21260" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1490" yWindow="660" windowWidth="11260" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -146,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Helmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盔甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +214,90 @@
   </si>
   <si>
     <t>手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment.QualityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,6 +316,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -278,13 +366,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +394,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -616,13 +718,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -681,6 +783,9 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -704,6 +809,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
@@ -718,6 +826,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
@@ -732,6 +843,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H7" t="s">
         <v>29</v>
       </c>
@@ -746,6 +860,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -763,6 +880,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H9" t="s">
         <v>34</v>
       </c>
@@ -771,6 +891,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H10" t="s">
         <v>35</v>
       </c>
@@ -779,6 +902,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H11" t="s">
         <v>36</v>
       </c>
@@ -787,6 +913,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H12" t="s">
         <v>37</v>
       </c>
@@ -808,114 +937,242 @@
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H24" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="b">
+      <c r="J24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="3" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H21" s="3" t="s">
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="b">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H23" s="3" t="s">
-        <v>55</v>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
